--- a/www.eia.gov/electricity/monthly/xls/table_1_04_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_04_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>Table 1.4.A. Utility Scale Facility Net Generation from Coal</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -86,6 +86,9 @@
     <t>Connecticut</t>
   </si>
   <si>
+    <t>--</t>
+  </si>
+  <si>
     <t>Maine</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>--</t>
   </si>
   <si>
     <t>Vermont</t>
@@ -1392,25 +1392,25 @@
         <v>16</v>
       </c>
       <c r="B7" s="10">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C7" s="10">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="D7" s="11">
-        <v>-0.60599999999999998</v>
+        <v>-0.73099999999999998</v>
       </c>
       <c r="E7" s="10">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F7" s="10">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G7" s="10">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H7" s="10">
-        <v>149</v>
+        <v>209</v>
       </c>
       <c r="I7" s="10">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>17</v>
       </c>
       <c r="L7" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1430,13 +1430,13 @@
         <v>18</v>
       </c>
       <c r="B8" s="13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="C8" s="13">
-        <v>7</v>
-      </c>
-      <c r="D8" s="14">
-        <v>-1.3080000000000001</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="13">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1465,16 +1465,16 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="13">
         <v>5</v>
       </c>
       <c r="C9" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" s="14">
-        <v>-0.254</v>
+        <v>0.20100000000000001</v>
       </c>
       <c r="E9" s="13">
         <v>0</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H9" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I9" s="13">
         <v>0</v>
@@ -1503,16 +1503,16 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="13">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C10" s="13">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="D10" s="14">
-        <v>-0.54100000000000004</v>
+        <v>-0.747</v>
       </c>
       <c r="E10" s="13">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="13">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H10" s="13">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="I10" s="13">
         <v>0</v>
@@ -1541,22 +1541,22 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="13">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="C11" s="13">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D11" s="14">
-        <v>-0.98899999999999999</v>
+        <v>-0.72299999999999998</v>
       </c>
       <c r="E11" s="13">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F11" s="13">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G11" s="13">
         <v>0</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="13">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>25</v>
       </c>
       <c r="B14" s="10">
-        <v>3546</v>
+        <v>3819</v>
       </c>
       <c r="C14" s="10">
-        <v>3674</v>
+        <v>4414</v>
       </c>
       <c r="D14" s="11">
-        <v>-3.5000000000000003E-2</v>
+        <v>-0.13500000000000001</v>
       </c>
       <c r="E14" s="10">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="10">
-        <v>3492</v>
+        <v>3772</v>
       </c>
       <c r="H14" s="10">
-        <v>3616</v>
+        <v>4353</v>
       </c>
       <c r="I14" s="10">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="K14" s="10">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="L14" s="10">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1696,13 +1696,13 @@
         <v>26</v>
       </c>
       <c r="B15" s="13">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C15" s="13">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="D15" s="14">
-        <v>7.0000000000000007E-2</v>
+        <v>-0.182</v>
       </c>
       <c r="E15" s="13">
         <v>0</v>
@@ -1711,10 +1711,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="13">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H15" s="13">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -1734,13 +1734,13 @@
         <v>27</v>
       </c>
       <c r="B16" s="13">
+        <v>23</v>
+      </c>
+      <c r="C16" s="13">
         <v>82</v>
       </c>
-      <c r="C16" s="13">
-        <v>114</v>
-      </c>
       <c r="D16" s="14">
-        <v>-0.28199999999999997</v>
+        <v>-0.72199999999999998</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="G16" s="13">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="H16" s="13">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="I16" s="13">
         <v>0</v>
@@ -1761,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="K16" s="13">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L16" s="13">
         <v>23</v>
@@ -1772,13 +1772,13 @@
         <v>28</v>
       </c>
       <c r="B17" s="13">
-        <v>3369</v>
+        <v>3710</v>
       </c>
       <c r="C17" s="13">
-        <v>3471</v>
+        <v>4227</v>
       </c>
       <c r="D17" s="14">
-        <v>-2.9000000000000001E-2</v>
+        <v>-0.122</v>
       </c>
       <c r="E17" s="13">
         <v>0</v>
@@ -1787,10 +1787,10 @@
         <v>0</v>
       </c>
       <c r="G17" s="13">
-        <v>3341</v>
+        <v>3687</v>
       </c>
       <c r="H17" s="13">
-        <v>3436</v>
+        <v>4190</v>
       </c>
       <c r="I17" s="13">
         <v>0</v>
@@ -1798,11 +1798,11 @@
       <c r="J17" s="13">
         <v>0</v>
       </c>
-      <c r="K17" s="13" t="s">
-        <v>17</v>
+      <c r="K17" s="13">
+        <v>23</v>
       </c>
       <c r="L17" s="13">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1810,37 +1810,37 @@
         <v>29</v>
       </c>
       <c r="B18" s="10">
-        <v>20769</v>
+        <v>18652</v>
       </c>
       <c r="C18" s="10">
-        <v>23809</v>
+        <v>20402</v>
       </c>
       <c r="D18" s="11">
-        <v>-0.128</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="E18" s="10">
-        <v>12407</v>
+        <v>12187</v>
       </c>
       <c r="F18" s="10">
-        <v>14215</v>
+        <v>12458</v>
       </c>
       <c r="G18" s="10">
-        <v>8197</v>
+        <v>6297</v>
       </c>
       <c r="H18" s="10">
-        <v>9376</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>17</v>
+        <v>7723</v>
+      </c>
+      <c r="I18" s="10">
+        <v>8</v>
       </c>
       <c r="J18" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K18" s="10">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L18" s="10">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1848,25 +1848,25 @@
         <v>30</v>
       </c>
       <c r="B19" s="13">
-        <v>4642</v>
+        <v>3276</v>
       </c>
       <c r="C19" s="13">
-        <v>5486</v>
+        <v>4936</v>
       </c>
       <c r="D19" s="14">
-        <v>-0.154</v>
+        <v>-0.33600000000000002</v>
       </c>
       <c r="E19" s="13">
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="F19" s="13">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="G19" s="13">
-        <v>4408</v>
+        <v>2948</v>
       </c>
       <c r="H19" s="13">
-        <v>5176</v>
+        <v>4545</v>
       </c>
       <c r="I19" s="13" t="s">
         <v>17</v>
@@ -1875,10 +1875,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="13">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L19" s="13">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1886,31 +1886,31 @@
         <v>31</v>
       </c>
       <c r="B20" s="13">
-        <v>5591</v>
+        <v>4864</v>
       </c>
       <c r="C20" s="13">
-        <v>6030</v>
+        <v>5097</v>
       </c>
       <c r="D20" s="14">
-        <v>-7.2999999999999995E-2</v>
+        <v>-4.5999999999999999E-2</v>
       </c>
       <c r="E20" s="13">
-        <v>5501</v>
+        <v>4632</v>
       </c>
       <c r="F20" s="13">
-        <v>5516</v>
+        <v>4619</v>
       </c>
       <c r="G20" s="13">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="H20" s="13">
-        <v>514</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>17</v>
+        <v>474</v>
+      </c>
+      <c r="I20" s="13">
+        <v>5</v>
       </c>
       <c r="J20" s="13">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>17</v>
@@ -1924,31 +1924,31 @@
         <v>32</v>
       </c>
       <c r="B21" s="13">
-        <v>2904</v>
+        <v>3138</v>
       </c>
       <c r="C21" s="13">
-        <v>4102</v>
+        <v>4205</v>
       </c>
       <c r="D21" s="14">
-        <v>-0.29199999999999998</v>
+        <v>-0.254</v>
       </c>
       <c r="E21" s="13">
-        <v>2854</v>
+        <v>3097</v>
       </c>
       <c r="F21" s="13">
-        <v>4056</v>
+        <v>4161</v>
       </c>
       <c r="G21" s="13">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H21" s="13">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I21" s="13">
         <v>0</v>
       </c>
       <c r="J21" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>17</v>
@@ -1962,25 +1962,25 @@
         <v>33</v>
       </c>
       <c r="B22" s="13">
-        <v>5054</v>
+        <v>4760</v>
       </c>
       <c r="C22" s="13">
-        <v>5312</v>
+        <v>3679</v>
       </c>
       <c r="D22" s="14">
-        <v>-4.8000000000000001E-2</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="E22" s="13">
-        <v>1390</v>
+        <v>1671</v>
       </c>
       <c r="F22" s="13">
-        <v>1641</v>
+        <v>991</v>
       </c>
       <c r="G22" s="13">
-        <v>3659</v>
+        <v>3086</v>
       </c>
       <c r="H22" s="13">
-        <v>3655</v>
+        <v>2671</v>
       </c>
       <c r="I22" s="13">
         <v>0</v>
@@ -1992,7 +1992,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -2000,19 +2000,19 @@
         <v>34</v>
       </c>
       <c r="B23" s="13">
-        <v>2578</v>
+        <v>2613</v>
       </c>
       <c r="C23" s="13">
-        <v>2879</v>
+        <v>2486</v>
       </c>
       <c r="D23" s="14">
-        <v>-0.104</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="E23" s="13">
-        <v>2545</v>
+        <v>2582</v>
       </c>
       <c r="F23" s="13">
-        <v>2818</v>
+        <v>2434</v>
       </c>
       <c r="G23" s="13">
         <v>0</v>
@@ -2027,10 +2027,10 @@
         <v>0</v>
       </c>
       <c r="K23" s="13">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L23" s="13">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -2038,19 +2038,19 @@
         <v>35</v>
       </c>
       <c r="B24" s="10">
-        <v>14075</v>
+        <v>13383</v>
       </c>
       <c r="C24" s="10">
-        <v>14889</v>
+        <v>12989</v>
       </c>
       <c r="D24" s="11">
-        <v>-5.5E-2</v>
+        <v>0.03</v>
       </c>
       <c r="E24" s="10">
-        <v>13872</v>
+        <v>13191</v>
       </c>
       <c r="F24" s="10">
-        <v>14635</v>
+        <v>12739</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>17</v>
@@ -2058,17 +2058,17 @@
       <c r="H24" s="10">
         <v>2</v>
       </c>
-      <c r="I24" s="10" t="s">
-        <v>17</v>
+      <c r="I24" s="10">
+        <v>18</v>
       </c>
       <c r="J24" s="10">
         <v>14</v>
       </c>
       <c r="K24" s="10">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L24" s="10">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -2076,19 +2076,19 @@
         <v>36</v>
       </c>
       <c r="B25" s="13">
-        <v>2184</v>
+        <v>1547</v>
       </c>
       <c r="C25" s="13">
-        <v>1934</v>
+        <v>1335</v>
       </c>
       <c r="D25" s="14">
-        <v>0.13</v>
+        <v>0.159</v>
       </c>
       <c r="E25" s="13">
-        <v>2054</v>
+        <v>1434</v>
       </c>
       <c r="F25" s="13">
-        <v>1776</v>
+        <v>1180</v>
       </c>
       <c r="G25" s="13">
         <v>0</v>
@@ -2100,13 +2100,13 @@
         <v>17</v>
       </c>
       <c r="J25" s="13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K25" s="13">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="L25" s="13">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -2114,19 +2114,19 @@
         <v>37</v>
       </c>
       <c r="B26" s="13">
-        <v>1743</v>
+        <v>1666</v>
       </c>
       <c r="C26" s="13">
-        <v>1783</v>
+        <v>1162</v>
       </c>
       <c r="D26" s="14">
-        <v>-2.1999999999999999E-2</v>
+        <v>0.434</v>
       </c>
       <c r="E26" s="13">
-        <v>1743</v>
+        <v>1666</v>
       </c>
       <c r="F26" s="13">
-        <v>1783</v>
+        <v>1162</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -2152,19 +2152,19 @@
         <v>38</v>
       </c>
       <c r="B27" s="13">
-        <v>1876</v>
+        <v>2071</v>
       </c>
       <c r="C27" s="13">
-        <v>1805</v>
+        <v>2005</v>
       </c>
       <c r="D27" s="14">
-        <v>0.04</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="E27" s="13">
-        <v>1839</v>
+        <v>2034</v>
       </c>
       <c r="F27" s="13">
-        <v>1758</v>
+        <v>1952</v>
       </c>
       <c r="G27" s="13">
         <v>0</v>
@@ -2176,13 +2176,13 @@
         <v>17</v>
       </c>
       <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>17</v>
+        <v>0.01</v>
+      </c>
+      <c r="K27" s="13">
+        <v>37</v>
       </c>
       <c r="L27" s="13">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -2190,19 +2190,19 @@
         <v>39</v>
       </c>
       <c r="B28" s="13">
-        <v>4003</v>
+        <v>4053</v>
       </c>
       <c r="C28" s="13">
-        <v>5089</v>
+        <v>4462</v>
       </c>
       <c r="D28" s="14">
-        <v>-0.21299999999999999</v>
+        <v>-9.1999999999999998E-2</v>
       </c>
       <c r="E28" s="13">
-        <v>3991</v>
+        <v>4040</v>
       </c>
       <c r="F28" s="13">
-        <v>5080</v>
+        <v>4456</v>
       </c>
       <c r="G28" s="13" t="s">
         <v>17</v>
@@ -2211,10 +2211,10 @@
         <v>2</v>
       </c>
       <c r="I28" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K28" s="13" t="s">
         <v>17</v>
@@ -2228,19 +2228,19 @@
         <v>40</v>
       </c>
       <c r="B29" s="13">
-        <v>1939</v>
+        <v>1750</v>
       </c>
       <c r="C29" s="13">
-        <v>1962</v>
+        <v>1648</v>
       </c>
       <c r="D29" s="14">
-        <v>-1.0999999999999999E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="E29" s="13">
-        <v>1920</v>
+        <v>1727</v>
       </c>
       <c r="F29" s="13">
-        <v>1932</v>
+        <v>1624</v>
       </c>
       <c r="G29" s="13">
         <v>0</v>
@@ -2254,11 +2254,11 @@
       <c r="J29" s="13">
         <v>0</v>
       </c>
-      <c r="K29" s="13" t="s">
-        <v>17</v>
+      <c r="K29" s="13">
+        <v>23</v>
       </c>
       <c r="L29" s="13">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -2266,19 +2266,19 @@
         <v>41</v>
       </c>
       <c r="B30" s="13">
-        <v>2304</v>
+        <v>2110</v>
       </c>
       <c r="C30" s="13">
-        <v>2121</v>
+        <v>2195</v>
       </c>
       <c r="D30" s="14">
-        <v>8.5999999999999993E-2</v>
+        <v>-3.7999999999999999E-2</v>
       </c>
       <c r="E30" s="13">
-        <v>2299</v>
+        <v>2105</v>
       </c>
       <c r="F30" s="13">
-        <v>2109</v>
+        <v>2183</v>
       </c>
       <c r="G30" s="13">
         <v>0</v>
@@ -2304,19 +2304,19 @@
         <v>42</v>
       </c>
       <c r="B31" s="13">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="C31" s="13">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D31" s="14">
-        <v>-0.871</v>
+        <v>2.7E-2</v>
       </c>
       <c r="E31" s="13">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="F31" s="13">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="G31" s="13">
         <v>0</v>
@@ -2342,37 +2342,37 @@
         <v>43</v>
       </c>
       <c r="B32" s="10">
-        <v>17252</v>
+        <v>14414</v>
       </c>
       <c r="C32" s="10">
-        <v>14103</v>
+        <v>14344</v>
       </c>
       <c r="D32" s="11">
-        <v>0.223</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E32" s="10">
-        <v>14838</v>
+        <v>12565</v>
       </c>
       <c r="F32" s="10">
-        <v>12483</v>
+        <v>12589</v>
       </c>
       <c r="G32" s="10">
-        <v>2330</v>
+        <v>1772</v>
       </c>
       <c r="H32" s="10">
-        <v>1494</v>
-      </c>
-      <c r="I32" s="10" t="s">
-        <v>17</v>
+        <v>1622</v>
+      </c>
+      <c r="I32" s="10">
+        <v>5</v>
       </c>
       <c r="J32" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K32" s="10">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="L32" s="10">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -2380,13 +2380,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C33" s="13">
-        <v>0</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D33" s="14">
+        <v>-1.099</v>
       </c>
       <c r="E33" s="13">
         <v>0</v>
@@ -2395,10 +2395,10 @@
         <v>0</v>
       </c>
       <c r="G33" s="13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H33" s="13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I33" s="13">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E34" s="13">
         <v>0</v>
@@ -2456,25 +2456,25 @@
         <v>46</v>
       </c>
       <c r="B35" s="13">
-        <v>3557</v>
+        <v>2830</v>
       </c>
       <c r="C35" s="13">
-        <v>3421</v>
+        <v>2923</v>
       </c>
       <c r="D35" s="14">
-        <v>0.04</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="E35" s="13">
-        <v>3505</v>
+        <v>2791</v>
       </c>
       <c r="F35" s="13">
-        <v>3327</v>
+        <v>2908</v>
       </c>
       <c r="G35" s="13">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H35" s="13">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="I35" s="13">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>17</v>
       </c>
       <c r="L35" s="13">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -2494,19 +2494,19 @@
         <v>47</v>
       </c>
       <c r="B36" s="13">
-        <v>2882</v>
+        <v>2242</v>
       </c>
       <c r="C36" s="13">
-        <v>1753</v>
+        <v>1368</v>
       </c>
       <c r="D36" s="14">
-        <v>0.64400000000000002</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="E36" s="13">
-        <v>2867</v>
+        <v>2227</v>
       </c>
       <c r="F36" s="13">
-        <v>1739</v>
+        <v>1350</v>
       </c>
       <c r="G36" s="13">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L36" s="13">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2532,13 +2532,13 @@
         <v>48</v>
       </c>
       <c r="B37" s="13">
-        <v>1108</v>
+        <v>648</v>
       </c>
       <c r="C37" s="13">
-        <v>755</v>
+        <v>599</v>
       </c>
       <c r="D37" s="14">
-        <v>0.46700000000000003</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="E37" s="13">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="G37" s="13">
-        <v>1102</v>
+        <v>641</v>
       </c>
       <c r="H37" s="13">
-        <v>750</v>
+        <v>592</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
@@ -2559,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="K37" s="13">
+        <v>7</v>
+      </c>
+      <c r="L37" s="13">
         <v>6</v>
-      </c>
-      <c r="L37" s="13">
-        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -2570,37 +2570,37 @@
         <v>49</v>
       </c>
       <c r="B38" s="13">
-        <v>2730</v>
+        <v>1864</v>
       </c>
       <c r="C38" s="13">
-        <v>2049</v>
+        <v>1876</v>
       </c>
       <c r="D38" s="14">
-        <v>0.33200000000000002</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E38" s="13">
-        <v>2697</v>
+        <v>1844</v>
       </c>
       <c r="F38" s="13">
-        <v>2023</v>
+        <v>1852</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I38" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J38" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>17</v>
       </c>
       <c r="L38" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -2608,19 +2608,19 @@
         <v>50</v>
       </c>
       <c r="B39" s="13">
-        <v>1015</v>
+        <v>1169</v>
       </c>
       <c r="C39" s="13">
-        <v>1404</v>
+        <v>1341</v>
       </c>
       <c r="D39" s="14">
-        <v>-0.27700000000000002</v>
+        <v>-0.129</v>
       </c>
       <c r="E39" s="13">
-        <v>1006</v>
+        <v>1164</v>
       </c>
       <c r="F39" s="13">
-        <v>1395</v>
+        <v>1332</v>
       </c>
       <c r="G39" s="13">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="13">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L39" s="13">
         <v>9</v>
@@ -2646,25 +2646,25 @@
         <v>51</v>
       </c>
       <c r="B40" s="13">
-        <v>1065</v>
+        <v>631</v>
       </c>
       <c r="C40" s="13">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="D40" s="14">
-        <v>-0.17100000000000001</v>
+        <v>-0.50800000000000001</v>
       </c>
       <c r="E40" s="13">
-        <v>975</v>
+        <v>585</v>
       </c>
       <c r="F40" s="13">
-        <v>1203</v>
+        <v>1213</v>
       </c>
       <c r="G40" s="13">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="H40" s="13">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>17</v>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="13">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L40" s="13">
         <v>27</v>
@@ -2684,25 +2684,25 @@
         <v>52</v>
       </c>
       <c r="B41" s="13">
-        <v>4895</v>
+        <v>5034</v>
       </c>
       <c r="C41" s="13">
-        <v>3436</v>
+        <v>4932</v>
       </c>
       <c r="D41" s="14">
-        <v>0.42499999999999999</v>
+        <v>2.1000000000000001E-2</v>
       </c>
       <c r="E41" s="13">
-        <v>3786</v>
+        <v>3954</v>
       </c>
       <c r="F41" s="13">
-        <v>2797</v>
+        <v>3934</v>
       </c>
       <c r="G41" s="13">
-        <v>1109</v>
+        <v>1079</v>
       </c>
       <c r="H41" s="13">
-        <v>602</v>
+        <v>955</v>
       </c>
       <c r="I41" s="13">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="13">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2722,25 +2722,25 @@
         <v>53</v>
       </c>
       <c r="B42" s="10">
-        <v>10637</v>
+        <v>9897</v>
       </c>
       <c r="C42" s="10">
-        <v>9715</v>
+        <v>8810</v>
       </c>
       <c r="D42" s="11">
-        <v>9.5000000000000001E-2</v>
+        <v>0.123</v>
       </c>
       <c r="E42" s="10">
-        <v>10400</v>
+        <v>9584</v>
       </c>
       <c r="F42" s="10">
-        <v>9508</v>
+        <v>8420</v>
       </c>
       <c r="G42" s="10">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="H42" s="10">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="I42" s="10">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="10">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L42" s="10">
         <v>90</v>
@@ -2760,19 +2760,19 @@
         <v>54</v>
       </c>
       <c r="B43" s="13">
-        <v>3123</v>
+        <v>2723</v>
       </c>
       <c r="C43" s="13">
-        <v>3073</v>
+        <v>2608</v>
       </c>
       <c r="D43" s="14">
-        <v>1.6E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="E43" s="13">
-        <v>3121</v>
+        <v>2719</v>
       </c>
       <c r="F43" s="13">
-        <v>3065</v>
+        <v>2597</v>
       </c>
       <c r="G43" s="13">
         <v>0</v>
@@ -2790,7 +2790,7 @@
         <v>17</v>
       </c>
       <c r="L43" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2798,19 +2798,19 @@
         <v>55</v>
       </c>
       <c r="B44" s="13">
-        <v>5237</v>
+        <v>4636</v>
       </c>
       <c r="C44" s="13">
-        <v>4950</v>
+        <v>4261</v>
       </c>
       <c r="D44" s="14">
-        <v>5.8000000000000003E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="E44" s="13">
-        <v>5237</v>
+        <v>4636</v>
       </c>
       <c r="F44" s="13">
-        <v>4950</v>
+        <v>4261</v>
       </c>
       <c r="G44" s="13">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>56</v>
       </c>
       <c r="B45" s="13">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C45" s="13">
-        <v>158</v>
+        <v>372</v>
       </c>
       <c r="D45" s="14">
-        <v>1.488</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="E45" s="13">
-        <v>218</v>
+        <v>143</v>
       </c>
       <c r="F45" s="13">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G45" s="13">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="H45" s="13">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -2874,19 +2874,19 @@
         <v>57</v>
       </c>
       <c r="B46" s="13">
-        <v>1884</v>
+        <v>2142</v>
       </c>
       <c r="C46" s="13">
-        <v>1534</v>
+        <v>1569</v>
       </c>
       <c r="D46" s="14">
-        <v>0.22800000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="E46" s="13">
-        <v>1824</v>
+        <v>2086</v>
       </c>
       <c r="F46" s="13">
-        <v>1452</v>
+        <v>1490</v>
       </c>
       <c r="G46" s="13">
         <v>0</v>
@@ -2901,10 +2901,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="13">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L46" s="13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="B47" s="10">
-        <v>17483</v>
+        <v>12779</v>
       </c>
       <c r="C47" s="10">
-        <v>14430</v>
+        <v>11534</v>
       </c>
       <c r="D47" s="11">
-        <v>0.21199999999999999</v>
+        <v>0.108</v>
       </c>
       <c r="E47" s="10">
-        <v>8487</v>
+        <v>5543</v>
       </c>
       <c r="F47" s="10">
-        <v>7152</v>
+        <v>5803</v>
       </c>
       <c r="G47" s="10">
-        <v>8957</v>
+        <v>7211</v>
       </c>
       <c r="H47" s="10">
-        <v>7244</v>
+        <v>5700</v>
       </c>
       <c r="I47" s="10">
         <v>0</v>
@@ -2939,10 +2939,10 @@
         <v>0</v>
       </c>
       <c r="K47" s="10">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L47" s="10">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
@@ -2950,25 +2950,25 @@
         <v>59</v>
       </c>
       <c r="B48" s="13">
-        <v>2368</v>
+        <v>1542</v>
       </c>
       <c r="C48" s="13">
-        <v>1530</v>
+        <v>1101</v>
       </c>
       <c r="D48" s="14">
-        <v>0.54800000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="E48" s="13">
-        <v>1914</v>
+        <v>1109</v>
       </c>
       <c r="F48" s="13">
-        <v>1312</v>
+        <v>815</v>
       </c>
       <c r="G48" s="13">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="H48" s="13">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="I48" s="13">
         <v>0</v>
@@ -2977,10 +2977,10 @@
         <v>0</v>
       </c>
       <c r="K48" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L48" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2988,25 +2988,25 @@
         <v>60</v>
       </c>
       <c r="B49" s="13">
-        <v>751</v>
+        <v>585</v>
       </c>
       <c r="C49" s="13">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="D49" s="14">
-        <v>-0.247</v>
+        <v>-0.41799999999999998</v>
       </c>
       <c r="E49" s="13">
-        <v>439</v>
+        <v>370</v>
       </c>
       <c r="F49" s="13">
-        <v>671</v>
+        <v>694</v>
       </c>
       <c r="G49" s="13">
+        <v>215</v>
+      </c>
+      <c r="H49" s="13">
         <v>312</v>
-      </c>
-      <c r="H49" s="13">
-        <v>326</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         <v>61</v>
       </c>
       <c r="B50" s="13">
-        <v>2335</v>
+        <v>1439</v>
       </c>
       <c r="C50" s="13">
-        <v>2177</v>
+        <v>1470</v>
       </c>
       <c r="D50" s="14">
-        <v>7.2999999999999995E-2</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="E50" s="13">
-        <v>2106</v>
+        <v>1281</v>
       </c>
       <c r="F50" s="13">
-        <v>1934</v>
+        <v>1259</v>
       </c>
       <c r="G50" s="13">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="H50" s="13">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="I50" s="13">
         <v>0</v>
@@ -3053,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="K50" s="13">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L50" s="13">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -3064,25 +3064,25 @@
         <v>62</v>
       </c>
       <c r="B51" s="13">
-        <v>12029</v>
+        <v>9214</v>
       </c>
       <c r="C51" s="13">
-        <v>9726</v>
+        <v>7958</v>
       </c>
       <c r="D51" s="14">
-        <v>0.23699999999999999</v>
+        <v>0.158</v>
       </c>
       <c r="E51" s="13">
-        <v>4028</v>
+        <v>2783</v>
       </c>
       <c r="F51" s="13">
-        <v>3235</v>
+        <v>3035</v>
       </c>
       <c r="G51" s="13">
-        <v>8001</v>
+        <v>6431</v>
       </c>
       <c r="H51" s="13">
-        <v>6491</v>
+        <v>4922</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -3102,25 +3102,25 @@
         <v>63</v>
       </c>
       <c r="B52" s="10">
-        <v>14520</v>
+        <v>13361</v>
       </c>
       <c r="C52" s="10">
-        <v>14752</v>
+        <v>13492</v>
       </c>
       <c r="D52" s="11">
-        <v>-1.6E-2</v>
+        <v>-0.01</v>
       </c>
       <c r="E52" s="10">
-        <v>12910</v>
+        <v>11854</v>
       </c>
       <c r="F52" s="10">
-        <v>13009</v>
+        <v>11833</v>
       </c>
       <c r="G52" s="10">
-        <v>1543</v>
+        <v>1482</v>
       </c>
       <c r="H52" s="10">
-        <v>1665</v>
+        <v>1617</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3129,10 +3129,10 @@
         <v>0</v>
       </c>
       <c r="K52" s="10">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="L52" s="10">
-        <v>78</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -3140,19 +3140,19 @@
         <v>64</v>
       </c>
       <c r="B53" s="13">
-        <v>2947</v>
+        <v>2180</v>
       </c>
       <c r="C53" s="13">
-        <v>3133</v>
+        <v>2522</v>
       </c>
       <c r="D53" s="14">
-        <v>-0.06</v>
+        <v>-0.13600000000000001</v>
       </c>
       <c r="E53" s="13">
-        <v>2947</v>
+        <v>2180</v>
       </c>
       <c r="F53" s="13">
-        <v>3133</v>
+        <v>2522</v>
       </c>
       <c r="G53" s="13">
         <v>0</v>
@@ -3178,25 +3178,25 @@
         <v>65</v>
       </c>
       <c r="B54" s="13">
-        <v>2370</v>
+        <v>2538</v>
       </c>
       <c r="C54" s="13">
-        <v>2095</v>
+        <v>2147</v>
       </c>
       <c r="D54" s="14">
-        <v>0.13100000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="E54" s="13">
-        <v>2365</v>
+        <v>2535</v>
       </c>
       <c r="F54" s="13">
-        <v>2087</v>
+        <v>2138</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H54" s="13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54" s="13">
         <v>0</v>
@@ -3219,7 +3219,7 @@
         <v>17</v>
       </c>
       <c r="C55" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>17</v>
@@ -3246,7 +3246,7 @@
         <v>17</v>
       </c>
       <c r="L55" s="13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -3254,25 +3254,25 @@
         <v>67</v>
       </c>
       <c r="B56" s="13">
-        <v>1401</v>
+        <v>1338</v>
       </c>
       <c r="C56" s="13">
-        <v>1503</v>
+        <v>1448</v>
       </c>
       <c r="D56" s="14">
-        <v>-6.8000000000000005E-2</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>17</v>
       </c>
       <c r="F56" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G56" s="13">
-        <v>1382</v>
+        <v>1321</v>
       </c>
       <c r="H56" s="13">
-        <v>1502</v>
+        <v>1442</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -3292,25 +3292,25 @@
         <v>68</v>
       </c>
       <c r="B57" s="13">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="C57" s="13">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="D57" s="14">
-        <v>-0.38900000000000001</v>
+        <v>-0.60299999999999998</v>
       </c>
       <c r="E57" s="13">
-        <v>68</v>
+        <v>-4</v>
       </c>
       <c r="F57" s="13">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="G57" s="13">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H57" s="13">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3330,19 +3330,19 @@
         <v>69</v>
       </c>
       <c r="B58" s="13">
-        <v>2047</v>
+        <v>1885</v>
       </c>
       <c r="C58" s="13">
-        <v>1730</v>
+        <v>1779</v>
       </c>
       <c r="D58" s="14">
-        <v>0.184</v>
+        <v>0.06</v>
       </c>
       <c r="E58" s="13">
-        <v>2047</v>
+        <v>1885</v>
       </c>
       <c r="F58" s="13">
-        <v>1730</v>
+        <v>1779</v>
       </c>
       <c r="G58" s="13">
         <v>0</v>
@@ -3368,25 +3368,25 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>2444</v>
+        <v>2214</v>
       </c>
       <c r="C59" s="13">
-        <v>2544</v>
+        <v>1954</v>
       </c>
       <c r="D59" s="14">
-        <v>-3.9E-2</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="E59" s="13">
-        <v>2363</v>
+        <v>2182</v>
       </c>
       <c r="F59" s="13">
-        <v>2477</v>
+        <v>1917</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H59" s="13">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3395,10 +3395,10 @@
         <v>0</v>
       </c>
       <c r="K59" s="13">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="L59" s="13">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -3406,25 +3406,25 @@
         <v>71</v>
       </c>
       <c r="B60" s="13">
-        <v>3173</v>
+        <v>3136</v>
       </c>
       <c r="C60" s="13">
-        <v>3522</v>
+        <v>3471</v>
       </c>
       <c r="D60" s="14">
-        <v>-9.9000000000000005E-2</v>
+        <v>-9.6000000000000002E-2</v>
       </c>
       <c r="E60" s="13">
-        <v>3102</v>
+        <v>3059</v>
       </c>
       <c r="F60" s="13">
-        <v>3427</v>
+        <v>3376</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H60" s="13">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -3432,11 +3432,11 @@
       <c r="J60" s="13">
         <v>0</v>
       </c>
-      <c r="K60" s="13" t="s">
-        <v>17</v>
+      <c r="K60" s="13">
+        <v>20</v>
       </c>
       <c r="L60" s="13">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -3444,25 +3444,25 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>837</v>
+        <v>469</v>
       </c>
       <c r="C61" s="10">
-        <v>1020</v>
+        <v>833</v>
       </c>
       <c r="D61" s="11">
-        <v>-0.17899999999999999</v>
+        <v>-0.437</v>
       </c>
       <c r="E61" s="10">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F61" s="10">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="G61" s="10">
-        <v>655</v>
+        <v>440</v>
       </c>
       <c r="H61" s="10">
-        <v>650</v>
+        <v>504</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>29</v>
       </c>
       <c r="L61" s="10">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -3482,13 +3482,13 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C62" s="13">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D62" s="14">
-        <v>0.70299999999999996</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="E62" s="13">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="K62" s="13">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L62" s="13">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3520,19 +3520,19 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="C63" s="13">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="D63" s="14">
-        <v>-0.56499999999999995</v>
+        <v>-1</v>
       </c>
       <c r="E63" s="13">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="F63" s="13">
-        <v>351</v>
+        <v>302</v>
       </c>
       <c r="G63" s="13">
         <v>0</v>
@@ -3558,13 +3558,13 @@
         <v>75</v>
       </c>
       <c r="B64" s="13">
-        <v>658</v>
+        <v>443</v>
       </c>
       <c r="C64" s="13">
-        <v>653</v>
+        <v>508</v>
       </c>
       <c r="D64" s="14">
-        <v>7.0000000000000001E-3</v>
+        <v>-0.126</v>
       </c>
       <c r="E64" s="13">
         <v>0</v>
@@ -3573,10 +3573,10 @@
         <v>0</v>
       </c>
       <c r="G64" s="13">
-        <v>655</v>
+        <v>440</v>
       </c>
       <c r="H64" s="13">
-        <v>650</v>
+        <v>504</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3585,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="K64" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L64" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3596,28 +3596,28 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C65" s="10">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D65" s="11">
-        <v>-0.17299999999999999</v>
+        <v>-0.127</v>
       </c>
       <c r="E65" s="10">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F65" s="10">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G65" s="10">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H65" s="10">
-        <v>149</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>17</v>
+        <v>142</v>
+      </c>
+      <c r="I65" s="10">
+        <v>9</v>
       </c>
       <c r="J65" s="10">
         <v>10</v>
@@ -3626,7 +3626,7 @@
         <v>17</v>
       </c>
       <c r="L65" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3634,28 +3634,28 @@
         <v>77</v>
       </c>
       <c r="B66" s="13">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C66" s="13">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D66" s="14">
-        <v>-0.46200000000000002</v>
+        <v>-0.41399999999999998</v>
       </c>
       <c r="E66" s="13">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F66" s="13">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>17</v>
       </c>
       <c r="H66" s="13">
-        <v>19</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="I66" s="13">
+        <v>9</v>
       </c>
       <c r="J66" s="13">
         <v>10</v>
@@ -3675,10 +3675,10 @@
         <v>128</v>
       </c>
       <c r="C67" s="13">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D67" s="14">
-        <v>-2.5999999999999999E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="G67" s="13">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H67" s="13">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="I67" s="13">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>17</v>
       </c>
       <c r="L67" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3710,37 +3710,37 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>99348</v>
+        <v>87000</v>
       </c>
       <c r="C68" s="10">
-        <v>96759</v>
+        <v>87227</v>
       </c>
       <c r="D68" s="11">
-        <v>2.7E-2</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E68" s="10">
-        <v>73088</v>
+        <v>64946</v>
       </c>
       <c r="F68" s="10">
-        <v>71408</v>
+        <v>64191</v>
       </c>
       <c r="G68" s="10">
-        <v>25547</v>
+        <v>21420</v>
       </c>
       <c r="H68" s="10">
-        <v>24463</v>
+        <v>22171</v>
       </c>
       <c r="I68" s="10">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J68" s="10">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K68" s="10">
-        <v>677</v>
+        <v>595</v>
       </c>
       <c r="L68" s="10">
-        <v>853</v>
+        <v>830</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="135" customHeight="1" x14ac:dyDescent="0.25">
